--- a/biology/Zoologie/Aethaloessa/Aethaloessa.xlsx
+++ b/biology/Zoologie/Aethaloessa/Aethaloessa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aethaloessa est un genre de lépidoptères de la famille des Crambidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre se rencontrent en Afrique, en Asie du Sud et du Sud-Est, en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre se rencontrent en Afrique, en Asie du Sud et du Sud-Est, en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'habitus est de Syngamia, les palpes sont juste étendus, les antennes de la moitié de la longueur du bord antérieur, en retrait, chez le mâle finement et longuement ciliées. Les côtes sont normales. Brun doré, les ailes antérieures sont avec une base jaune doré, une bande médiane et une grande macule ovale transversale qui touche le bord antérieur en arrière ; sur les postérieures, la couleur jaune doré est tellement étendue qu'il ne reste qu'une bande marginale de la couleur de fond[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitus est de Syngamia, les palpes sont juste étendus, les antennes de la moitié de la longueur du bord antérieur, en retrait, chez le mâle finement et longuement ciliées. Les côtes sont normales. Brun doré, les ailes antérieures sont avec une base jaune doré, une bande médiane et une grande macule ovale transversale qui touche le bord antérieur en arrière ; sur les postérieures, la couleur jaune doré est tellement étendue qu'il ne reste qu'une bande marginale de la couleur de fond.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 juin 2021)[1], l'INPN      (16 juin 2021)[3], Catalogue of Life                                   (16 juin 2021)[4] et BioLib                    (16 juin 2021)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 juin 2021), l'INPN      (16 juin 2021), Catalogue of Life                                   (16 juin 2021) et BioLib                    (16 juin 2021) :
 Aethaloessa calidalis Guenée, 1854
 Aethaloessa floridalis Zeller, 1852
-Selon l'IRMNG  (16 juin 2021)[6] :
+Selon l'IRMNG  (16 juin 2021) :
 Aethaloessa aurantiaca Hampson, 1912
 Aethaloessa calidalis Guenée, 1854
 Aethaloessa floridalis Zeller, 1852
@@ -617,12 +635,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce genre est décrit par l'entomologiste autrichien Julius Lederer, en 1863, qui le baptise Aethaloëssa, dans le périodique Wiener Entomologische Monatschrift[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce genre est décrit par l'entomologiste autrichien Julius Lederer, en 1863, qui le baptise Aethaloëssa, dans le périodique Wiener Entomologische Monatschrift.
 Aethaloessa a pour synonymes :
-Chnaura Lederer, 1863[1]
-Aethaloëssa Lederer, 1863[6]</t>
+Chnaura Lederer, 1863
+Aethaloëssa Lederer, 1863</t>
         </is>
       </c>
     </row>
